--- a/biology/Zoologie/Gea_spinipes/Gea_spinipes.xlsx
+++ b/biology/Zoologie/Gea_spinipes/Gea_spinipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gea spinipes est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gea spinipes est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pakistan, en Inde, en Chine, à Taïwan, au Viêt Nam, en Birmanie, en Malaisie, à Singapour et en Indonésie au Kalimantan et à Sumatra[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pakistan, en Inde, en Chine, à Taïwan, au Viêt Nam, en Birmanie, en Malaisie, à Singapour et en Indonésie au Kalimantan et à Sumatra,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Chang et Chang en 1997 mesure 4,39 mm et la femelle 5,80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Chang et Chang en 1997 mesure 4,39 mm et la femelle 5,80 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 20/07/2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 20/07/2021) :
 Gea spinipes nigrifrons Simon, 1901 de Malaisie
 Gea spinipes spinipes C. L. Koch, 1843</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1843 : Die Arachniden. Nürnberg, vol. 10, p. 37-142 (texte intégral).
 Simon, 1901 : « On the Arachnida collected during the Skeat expedition to the Malay Peninsula. » Proceedings of the Zoological Society of London, vol. 1901, no 2, p. 45-84 (texte intégral).</t>
